--- a/biology/Médecine/SBEM/SBEM.xlsx
+++ b/biology/Médecine/SBEM/SBEM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène SBEM (acronyme de l'appellation anglo-saxonne "small breast epithelial mucin") est localisé sur le chromosome 12, locus 12q13.2. Il couvre une région de 3.9 kilobases (kb) consistant en 4 exons et 3 introns. L'ARN messager correspondant, long d'environ 600-700 nucléotides, code une protéine de 90 acides aminés et d'un poids moléculaire estimé de 9039 (en)[3](en)[4].
-Le gène SBEM est préférentiellement exprimé dans les cellules épithéliales mammaires et surexprimé dans les cancers du sein (en)[5].
-La haute spécificité mammaire de l'expression de SBEM a amené à utiliser celle-ci pour détecter les cellules tumorales mammaires disséminées dans l'organisme (métastase)(en)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène SBEM (acronyme de l'appellation anglo-saxonne "small breast epithelial mucin") est localisé sur le chromosome 12, locus 12q13.2. Il couvre une région de 3.9 kilobases (kb) consistant en 4 exons et 3 introns. L'ARN messager correspondant, long d'environ 600-700 nucléotides, code une protéine de 90 acides aminés et d'un poids moléculaire estimé de 9039 (en)(en).
+Le gène SBEM est préférentiellement exprimé dans les cellules épithéliales mammaires et surexprimé dans les cancers du sein (en).
+La haute spécificité mammaire de l'expression de SBEM a amené à utiliser celle-ci pour détecter les cellules tumorales mammaires disséminées dans l'organisme (métastase)(en).
 </t>
         </is>
       </c>
